--- a/data/simulated-data.xlsx
+++ b/data/simulated-data.xlsx
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Gene</t>
+  </si>
   <si>
     <t>Sample1</t>
   </si>
@@ -67,7 +70,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,13 +82,6 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -537,48 +533,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -588,97 +587,94 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1040,35 +1036,40 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:7">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>0.51</v>
@@ -1091,7 +1092,7 @@
     </row>
     <row r="3" ht="14.25" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>0.52</v>
@@ -1114,7 +1115,7 @@
     </row>
     <row r="4" ht="14.25" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>0.53</v>
@@ -1137,7 +1138,7 @@
     </row>
     <row r="5" ht="14.25" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>0.21</v>
@@ -1160,7 +1161,7 @@
     </row>
     <row r="6" ht="14.25" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
         <v>0.22</v>
@@ -1183,7 +1184,7 @@
     </row>
     <row r="7" ht="14.25" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
         <v>0.23</v>
@@ -1206,7 +1207,7 @@
     </row>
     <row r="8" ht="14.25" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
         <v>0.1</v>

--- a/data/simulated-data.xlsx
+++ b/data/simulated-data.xlsx
@@ -1036,7 +1036,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
@@ -1126,9 +1126,7 @@
       <c r="D4" s="1">
         <v>0.61</v>
       </c>
-      <c r="E4" s="1">
-        <v>0.23</v>
-      </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="1">
         <v>0.29</v>
       </c>
@@ -1198,9 +1196,7 @@
       <c r="E7" s="1">
         <v>0.53</v>
       </c>
-      <c r="F7" s="1">
-        <v>0.6</v>
-      </c>
+      <c r="F7" s="1"/>
       <c r="G7" s="1">
         <v>0.61</v>
       </c>
